--- a/CASE_E_output_D.xlsx
+++ b/CASE_E_output_D.xlsx
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
@@ -734,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
         <v>4</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -1156,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
         <v>4</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="n">
         <v>3</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB21" t="n">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
         <v>4</v>
@@ -2991,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>4</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>3</v>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z30" t="n">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -3413,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -3458,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>3</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
@@ -3686,13 +3686,13 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -3701,16 +3701,16 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
         <v>4</v>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>4</v>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>4</v>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="AC38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
         <v>4</v>
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>4</v>
@@ -4286,13 +4286,13 @@
         <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>3</v>
       </c>
       <c r="W42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
         <v>4</v>
@@ -4365,7 +4365,7 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33267</v>
+        <v>33948</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,13 +4895,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -4939,35 +4939,35 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
       <c r="F5" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -4975,43 +4975,43 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -5019,18 +5019,18 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>-2</v>
@@ -5041,43 +5041,43 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>14</v>
-      </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11">
@@ -5085,18 +5085,18 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5104,24 +5104,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -5129,87 +5129,87 @@
         <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -5217,21 +5217,21 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
@@ -5239,48 +5239,48 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -5291,13 +5291,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21">
@@ -5305,43 +5305,43 @@
         <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
         <v>12</v>
       </c>
-      <c r="E21" t="n">
-        <v>10</v>
-      </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>11</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>9</v>
-      </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -5349,18 +5349,18 @@
         <v>11</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>-2</v>
@@ -5368,29 +5368,29 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5401,40 +5401,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5445,18 +5445,18 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5489,18 +5489,18 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -5511,13 +5511,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31">
@@ -5525,43 +5525,43 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
         <v>8</v>
       </c>
-      <c r="E31" t="n">
-        <v>12</v>
-      </c>
       <c r="F31" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="33">
@@ -5569,21 +5569,21 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -5621,13 +5621,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36">
@@ -5709,40 +5709,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
         <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -5753,18 +5753,18 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -5841,40 +5841,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
         <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -5885,18 +5885,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
@@ -5907,18 +5907,18 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -5951,13 +5951,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -5965,26 +5965,26 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -5995,18 +5995,18 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -6017,18 +6017,18 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -6039,18 +6039,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -6083,18 +6083,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -6111,50 +6111,6 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>28</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>12</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>28</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/CASE_E_output_D.xlsx
+++ b/CASE_E_output_D.xlsx
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
@@ -734,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="n">
         <v>4</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="n">
         <v>4</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
         <v>3</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20" t="n">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC27" t="n">
         <v>4</v>
@@ -2991,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
         <v>4</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>3</v>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -3413,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -3458,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
         <v>3</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>4</v>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
         <v>4</v>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>4</v>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="AC38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>4</v>
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
         <v>4</v>
@@ -4286,13 +4286,13 @@
         <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>3</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X42" t="n">
         <v>4</v>
@@ -4365,7 +4365,7 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33948</v>
+        <v>33359</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,13 +4895,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="3">
@@ -4939,35 +4939,35 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6">
@@ -4975,43 +4975,43 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8">
@@ -5019,21 +5019,21 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
       <c r="F8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -5041,43 +5041,43 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5085,43 +5085,43 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -5129,87 +5129,87 @@
         <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
-        <v>12</v>
-      </c>
       <c r="F13" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>9</v>
-      </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="17">
@@ -5217,21 +5217,21 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -5239,65 +5239,65 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
       <c r="F18" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>9</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
@@ -5305,43 +5305,43 @@
         <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="n">
-        <v>12</v>
-      </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
@@ -5349,18 +5349,18 @@
         <v>11</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
         <v>10</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>-2</v>
@@ -5368,29 +5368,29 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5401,40 +5401,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5445,13 +5445,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28">
@@ -5459,40 +5459,40 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
         <v>-1</v>
@@ -5503,21 +5503,21 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31">
@@ -5525,43 +5525,43 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -5569,21 +5569,21 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="34">
@@ -5621,13 +5621,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36">
@@ -5709,40 +5709,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" t="n">
         <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E40" t="n">
         <v>10</v>
       </c>
-      <c r="E40" t="n">
-        <v>12</v>
-      </c>
       <c r="F40" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -5753,18 +5753,18 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -5841,40 +5841,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
         <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -5885,18 +5885,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
@@ -5907,18 +5907,18 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -5951,13 +5951,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5965,26 +5965,26 @@
         <v>25</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -5995,18 +5995,18 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -6017,18 +6017,18 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -6039,18 +6039,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -6083,18 +6083,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -6111,6 +6111,50 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
         <v>-1</v>
       </c>
     </row>
